--- a/Probability_and_statistics/statistics/tables/prob_examp_17/inp.xlsx
+++ b/Probability_and_statistics/statistics/tables/prob_examp_17/inp.xlsx
@@ -34,7 +34,7 @@
     <t xml:space="preserve">10-20</t>
   </si>
   <si>
-    <t xml:space="preserve">                 x</t>
+    <t xml:space="preserve">x</t>
   </si>
   <si>
     <t xml:space="preserve">20-30</t>
@@ -46,7 +46,7 @@
     <t xml:space="preserve">40-50</t>
   </si>
   <si>
-    <t xml:space="preserve">                 y</t>
+    <t xml:space="preserve">y</t>
   </si>
   <si>
     <t xml:space="preserve">50-60</t>
@@ -148,12 +148,12 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.66"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
